--- a/discos.xlsx
+++ b/discos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andre/git/discostuanis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{047CB469-1245-D84C-BE6F-E97C4483FF34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A34065E9-BD82-9A44-8C8D-99A4A80FAF6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="19580" xr2:uid="{7C987A10-9C23-3F48-8F60-B88DDA423F8F}"/>
   </bookViews>
@@ -144,21 +144,6 @@
     <t>http://tesorodelmal.bandcamp.com</t>
   </si>
   <si>
-    <t>elsegundomejor.jpeg</t>
-  </si>
-  <si>
-    <t>post-musica.jpeg</t>
-  </si>
-  <si>
-    <t>luocen.jpeg</t>
-  </si>
-  <si>
-    <t>rancholindo.jpeg</t>
-  </si>
-  <si>
-    <t>musicamala.jpeg</t>
-  </si>
-  <si>
     <t>Trabajar Desde La Casa</t>
   </si>
   <si>
@@ -177,7 +162,22 @@
     <t>tddlcvicepresidente</t>
   </si>
   <si>
-    <t>tddlc.jpeg</t>
+    <t>post-musica</t>
+  </si>
+  <si>
+    <t>elsegundomejor</t>
+  </si>
+  <si>
+    <t>luocen</t>
+  </si>
+  <si>
+    <t>rancholindo</t>
+  </si>
+  <si>
+    <t>musicamala</t>
+  </si>
+  <si>
+    <t>tddlc</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E797C7E-085B-3144-9A53-7BE8732C27F0}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -728,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -736,25 +736,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>2020</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
         <v>50</v>
